--- a/CSP/data/test_update_password.xlsx
+++ b/CSP/data/test_update_password.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>序号</t>
   </si>
@@ -118,22 +118,73 @@
     <t>008</t>
   </si>
   <si>
+    <t>输入正确账号</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>wuji2020</t>
+  </si>
+  <si>
     <t>009</t>
   </si>
   <si>
+    <t>输入正确密码</t>
+  </si>
+  <si>
     <t>010</t>
   </si>
   <si>
+    <t>点击图片验证码</t>
+  </si>
+  <si>
+    <t>imgCode</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
+    <t>短信验证码</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>sms_Verification</t>
+  </si>
+  <si>
     <t>012</t>
   </si>
   <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>link_text</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
     <t>013</t>
   </si>
   <si>
+    <t>点击下拉框</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[1]/div/span[2]</t>
+  </si>
+  <si>
     <t>014</t>
+  </si>
+  <si>
+    <t>点击退出登录</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[1]/div/div/div[2]</t>
   </si>
   <si>
     <t>015</t>
@@ -172,11 +223,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,10 +239,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -200,7 +252,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,15 +273,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,14 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,37 +358,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,22 +379,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,25 +389,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,25 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,127 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,9 +600,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,26 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -617,6 +643,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -637,17 +678,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,148 +700,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -805,19 +849,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,7 +1215,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1329,79 +1373,139 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1411,7 +1515,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1421,7 +1525,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1431,7 +1535,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1441,7 +1545,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1451,7 +1555,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1461,7 +1565,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1471,7 +1575,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1481,7 +1585,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1491,7 +1595,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
